--- a/output/inference_results/test_sheets/batch_003/test_sheet (26).xlsx
+++ b/output/inference_results/test_sheets/batch_003/test_sheet (26).xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -478,7 +478,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>淋巴细胞</t>
+          <t>淋巴细胞比率</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>↑0.40-4.40</t>
+          <t>0.40-4.40</t>
         </is>
       </c>
     </row>
@@ -517,17 +517,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>单核细胞</t>
+          <t>单核细胞数</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>↑0.00-0.80</t>
+          <t>0.00-0.80</t>
         </is>
       </c>
     </row>
@@ -539,12 +539,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>嗜酸性粒细胞</t>
+          <t>嗜酸性粒细胞数</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -588,12 +588,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>23.20</t>
+          <t>23.2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>V50.00-70.00</t>
+          <t>50.00-70.00</t>
         </is>
       </c>
     </row>
@@ -610,12 +610,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>61.90</t>
+          <t>61.9</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>↑20.00-40.00</t>
+          <t>20.00-40.00</t>
         </is>
       </c>
     </row>
@@ -632,12 +632,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14.60</t>
+          <t>14.6</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>↑0.00-9.00</t>
+          <t>0.00-9.00</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>110-170g/L</t>
+          <t>110-170</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>38.00</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>76.50</t>
+          <t>76.5</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -786,12 +786,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>25.60</t>
+          <t>25.6</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>127.00-36.00pg</t>
+          <t>127.00-36.00</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>320-360g/L</t>
+          <t>320-360</t>
         </is>
       </c>
     </row>
@@ -874,12 +874,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5.00-10.00f</t>
+          <t>5.00-10.00</t>
         </is>
       </c>
     </row>
@@ -891,17 +891,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>血小板平均分布宽</t>
+          <t>血小板分布宽度</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17.90</t>
+          <t>17.9</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>9.00—20.00</t>
+          <t>9.00-20.00</t>
         </is>
       </c>
     </row>
